--- a/data/client_gamedata/settings.xlsx
+++ b/data/client_gamedata/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-3_0_0 (client-3.0.0; server-3.0.0)</v>
+        <v>prod-3_1_0 (client-3.1.0; server-3.1.0)</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>ngcp75PmsECUG8zuUhGeVv1LMInUdJsalCRjKKr6KoipZzOJYnmXvL5yiDFcxdMe</v>
+        <v>5eTEJfyniWsyIMd93+k61mUNr6rvOeiRLVN2BVGCvba9swh18EZiHnc4dssLfsNv</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>bqw53dd2+knujUxHAhh8d5Di+EblX2014zfLSTbS0ZOpIE5Xi2+WFnOd89ihA7M8</v>
+        <v>7H3zvL5UIUUwALM9VG6NhhbohzC0za2QSj1gmjKz13f6eq95zBkz3+faU5spJrgW</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>ybr+zkcl1ZIiuRGGYkvvOqWlpyZNXBRRFL0a40GIDDYVidJQw9GjB6ifVt3N0U9j</v>
+        <v>brgiQJRGLPeB4wlzTv8Z2h1wEA7eA6bvAJE/Q+ZuONGoWC8voUWGcZVpABz7Ydki</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>rYYF2HfDLFrLjh4SatA1lAkKdFsG/CHl3WjCKSeXLQKb0OIC8xd45YqAZq0Kh3WM</v>
+        <v>nClWX7VNvbk6D0wR9B1xWfbXG8FkOOXqDDf+InVTbrbWNxLCbqreDMIuWuDLj7TW</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>Ze1cocnuAKkepcHSVlhtVRZGuDJQ/GfbgizRN7JienO1pzJRJlWJxk0hXa+n5McB</v>
+        <v>N5sV0fLrdb0sFTh5Sg6sZi9VQ5co1HDnsvt6MsdODMdIhMnGRU9MR9DsUwzv78Na</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>Oy4OfuEokBT2p3mrb6CO0u7f01vlH2inmxvhc1S8m1Nh4D2m10JPn2QGejCoNqmp</v>
+        <v>hgE39XbxBg6jApFIhc9Af8kseaUzEgepKzQlpghXGheFieQXhTT5c0dDErZ1uBlo</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>RzLS2RUCpUOc+jYWmcHqcvrufsZ2LWbVKWgs2joUhD2/OCkKwZMAFQUYIVktPBLo</v>
+        <v>mZeEU8OlFECgBjaahet0YEqdfoKPMoNQY9VlCBucxAl5S2I2mU6Vn6j0Zs4S7cT6</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +588,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>/zpiNIbAvo1KJMAfgOmQYweL6XVYtw0n+pQzYTkflTkKf6T0I+m8BJkM4aLt9fKc</v>
+        <v>9ZUvSPsLtw1iyjaeh4Ht69+4WwkTtuF9nvvH9LkyjF8a4Tl701c2Fa8fJyP6fvvr</v>
       </c>
     </row>
   </sheetData>
